--- a/01_需求文档/项目部工程核算系统功能模块表.xlsx
+++ b/01_需求文档/项目部工程核算系统功能模块表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK1" localSheetId="0">Sheet1!$C$10</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Sheet1!$D$11</definedName>
     <definedName name="OLE_LINK1" localSheetId="1">Sheet2!$C$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="130">
   <si>
     <t>序号</t>
   </si>
@@ -179,10 +179,6 @@
   </si>
   <si>
     <t>按业务需求实现往来欠款功能，包括利率的设置，以及利息的计算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目部/事业部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -508,6 +504,146 @@
   </si>
   <si>
     <t>参数表：利率，每一类付款的报销比例和名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目核算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据治理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用章申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用章统计表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录认证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表导出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多项目汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单项目汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同项目信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同补充协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方开票情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户开票情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>型材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>往来欠款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由项目部或事业部人员填写用章申请,并提交给财务部审核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用章审批控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部对用章申请进行审批,当财务主管外出,可将审批权限委托给财务经理，财务经办人根据审批通过的用章申请进行盖章。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息检索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供按关键字进行信息检索的功能，进行模糊搜索匹配展示信息检索结果。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供信息管理平台的录入管理功能，包括信息的新建/修改与删除。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息录入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程财务核算系统业务功能分析及报价表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -694,6 +830,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -703,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,12 +948,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,20 +981,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1081,107 +1289,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.75" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="47.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="11" customWidth="1"/>
+    <col min="7" max="10" width="12.25" style="4" customWidth="1"/>
+    <col min="11" max="12" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="F2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="12" t="s">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="28"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>8000</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="17" t="s">
         <v>29</v>
       </c>
@@ -1191,30 +1409,34 @@
       <c r="H4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="14">
         <v>41755</v>
       </c>
-      <c r="J4" s="14">
+      <c r="L4" s="14">
         <v>41758</v>
       </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="38"/>
+      <c r="C5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2">
         <v>4500</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" s="17" t="s">
         <v>29</v>
       </c>
@@ -1224,30 +1446,34 @@
       <c r="H5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="14">
         <v>41758</v>
       </c>
-      <c r="J5" s="14">
+      <c r="L5" s="14">
         <v>41760</v>
       </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2">
         <v>1500</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" s="17" t="s">
         <v>29</v>
       </c>
@@ -1257,559 +1483,744 @@
       <c r="H6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="14">
         <v>41760</v>
       </c>
-      <c r="J6" s="14">
+      <c r="L6" s="14">
         <v>41762</v>
       </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="14">
-        <v>41762</v>
-      </c>
-      <c r="J7" s="14">
-        <v>41764</v>
-      </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="I7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="14">
+        <v>41797</v>
+      </c>
+      <c r="L7" s="14">
+        <v>41799</v>
+      </c>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6500</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="14">
+        <v>41762</v>
+      </c>
+      <c r="L8" s="14">
         <v>41764</v>
       </c>
-      <c r="J8" s="14">
-        <v>41766</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6500</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="14">
+        <v>41764</v>
+      </c>
+      <c r="L9" s="14">
         <v>41766</v>
       </c>
-      <c r="J9" s="14">
-        <v>41768</v>
-      </c>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9500</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="14">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="14">
+        <v>41766</v>
+      </c>
+      <c r="L10" s="14">
         <v>41768</v>
       </c>
-      <c r="J10" s="14">
-        <v>41771</v>
-      </c>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7000</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B11" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9500</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="14">
+      <c r="H11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14">
+        <v>41768</v>
+      </c>
+      <c r="L11" s="14">
         <v>41771</v>
       </c>
-      <c r="J11" s="14">
-        <v>41773</v>
-      </c>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3500</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="14">
+      <c r="H12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14">
+        <v>41771</v>
+      </c>
+      <c r="L12" s="14">
         <v>41773</v>
       </c>
-      <c r="J12" s="14">
-        <v>41775</v>
-      </c>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6500</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="14">
+      <c r="H13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="14">
+        <v>41773</v>
+      </c>
+      <c r="L13" s="14">
         <v>41775</v>
       </c>
-      <c r="J13" s="14">
-        <v>41777</v>
-      </c>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6500</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="14">
+      <c r="H14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="14">
+        <v>41775</v>
+      </c>
+      <c r="L14" s="14">
         <v>41777</v>
       </c>
-      <c r="J14" s="14">
-        <v>41779</v>
-      </c>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2">
-        <v>7500</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="14">
+      <c r="H15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="14">
+        <v>41777</v>
+      </c>
+      <c r="L15" s="14">
         <v>41779</v>
       </c>
-      <c r="J15" s="14">
-        <v>41781</v>
-      </c>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4500</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7500</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="14">
+      <c r="H16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="14">
+        <v>41779</v>
+      </c>
+      <c r="L16" s="14">
         <v>41781</v>
       </c>
-      <c r="J16" s="14">
-        <v>41783</v>
-      </c>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
-        <v>7000</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4500</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="14">
+      <c r="H17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="14">
+        <v>41781</v>
+      </c>
+      <c r="L17" s="14">
         <v>41783</v>
       </c>
-      <c r="J17" s="14">
-        <v>41785</v>
-      </c>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2">
-        <v>9500</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="14">
+      <c r="H18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="14">
+        <v>41783</v>
+      </c>
+      <c r="L18" s="14">
         <v>41785</v>
       </c>
-      <c r="J18" s="14">
-        <v>41788</v>
-      </c>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9500</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="14">
+      <c r="H19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="14">
+        <v>41785</v>
+      </c>
+      <c r="L19" s="14">
         <v>41788</v>
       </c>
-      <c r="J19" s="14">
-        <v>41790</v>
-      </c>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>7000</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="14">
+      <c r="H20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="14">
         <v>41790</v>
       </c>
-      <c r="J20" s="14">
+      <c r="L20" s="14">
         <v>41792</v>
       </c>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2">
-        <v>9000</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="14">
-        <v>41792</v>
-      </c>
-      <c r="J21" s="14">
-        <v>41795</v>
-      </c>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="B21" s="39"/>
+      <c r="C21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="14">
+        <v>41788</v>
+      </c>
+      <c r="L21" s="14">
+        <v>41790</v>
+      </c>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="2">
         <v>3000</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="H22" s="17"/>
-      <c r="I22" s="14">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="14">
+        <v>41792</v>
+      </c>
+      <c r="L22" s="14">
         <v>41795</v>
       </c>
-      <c r="J22" s="14">
-        <v>41797</v>
-      </c>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="38"/>
+      <c r="C23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="2">
         <v>5000</v>
       </c>
-      <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="14">
-        <v>41797</v>
-      </c>
-      <c r="J23" s="14">
-        <v>41799</v>
-      </c>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="G23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="14">
+        <v>41792</v>
+      </c>
+      <c r="L23" s="14">
+        <v>41795</v>
+      </c>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="17"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1000</v>
+      </c>
       <c r="F24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="14">
-        <v>41799</v>
-      </c>
-      <c r="J24" s="14">
-        <v>41801</v>
-      </c>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="G24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="14">
+        <v>41792</v>
+      </c>
+      <c r="L24" s="14">
+        <v>41795</v>
+      </c>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="14">
+        <v>41795</v>
+      </c>
+      <c r="L25" s="14">
+        <v>41797</v>
+      </c>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="18">
+        <v>22</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="14">
+        <v>41795</v>
+      </c>
+      <c r="L26" s="14">
+        <v>41797</v>
+      </c>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="18">
+        <v>23</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="14">
+        <v>41799</v>
+      </c>
+      <c r="L27" s="14">
+        <v>41801</v>
+      </c>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="18">
+        <v>24</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E28" s="2">
         <v>3000</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="14">
+      <c r="F28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="14">
         <v>41801</v>
       </c>
-      <c r="J25" s="14">
-        <v>41803</v>
-      </c>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
+      <c r="L28" s="14">
+        <v>41805</v>
+      </c>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="8">
-        <f>SUM(D4:D25)</f>
+      <c r="E29" s="8">
+        <f>SUM(E4:E28)</f>
         <v>117500</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="E2:H2"/>
+  <mergeCells count="16">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1821,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1837,12 +2248,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -1855,13 +2266,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -1875,10 +2286,10 @@
         <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+        <v>89</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
@@ -1888,13 +2299,13 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="27"/>
+      <c r="E4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
@@ -1904,29 +2315,29 @@
         <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="27"/>
+      <c r="E5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="27"/>
+      <c r="E6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
@@ -1936,15 +2347,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="E7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -1955,10 +2366,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="27"/>
+      <c r="E8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
@@ -1971,13 +2382,13 @@
         <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1991,11 +2402,11 @@
         <v>4</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>76</v>
+      <c r="E10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -2009,10 +2420,10 @@
         <v>35</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="27"/>
+      <c r="E11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
@@ -2025,10 +2436,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="27"/>
+      <c r="E12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
@@ -2041,10 +2452,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="27"/>
+      <c r="E13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
@@ -2057,10 +2468,10 @@
         <v>21</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="27"/>
+      <c r="E14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
@@ -2073,10 +2484,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="27"/>
+      <c r="E15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
@@ -2089,10 +2500,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="27"/>
+      <c r="E16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
@@ -2105,10 +2516,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="27"/>
+      <c r="E17" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
@@ -2121,10 +2532,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="27"/>
+      <c r="E18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
@@ -2137,10 +2548,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="27"/>
+      <c r="E19" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
@@ -2153,11 +2564,11 @@
         <v>36</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>89</v>
+      <c r="E20" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -2165,17 +2576,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>88</v>
+      <c r="E21" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -2186,43 +2597,43 @@
         <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="18">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="18">
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2239,59 +2650,59 @@
   <dimension ref="B1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="31" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="31" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="31" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="31" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="31" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="31" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="31" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="31" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="24" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="31" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
